--- a/Discharge/Discharge_2019/Discharge_July11.xlsx
+++ b/Discharge/Discharge_2019/Discharge_July11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/Discharge_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E561EF-63B5-7147-9F19-4928001D72E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4920AA5-86A6-E24F-837C-30ED8BE848B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="760" windowWidth="10000" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="860" windowWidth="10000" windowHeight="19640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stn1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="12">
   <si>
     <t>X</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>New depth</t>
+  </si>
+  <si>
+    <t>new depth</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -1337,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1848,6 +1851,251 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>C17*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>A34</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F34">
+        <f>SUM(E34:E44)</f>
+        <v>5.4337711999999988E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.6</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C44" si="5">C18*2.54</f>
+        <v>0.20320000000000002</v>
+      </c>
+      <c r="D35">
+        <f>(A35+(A36-A35)/2)</f>
+        <v>0.625</v>
+      </c>
+      <c r="E35">
+        <f>(D35-D34)*(B35)*C35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.65</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>0.2286</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:D44" si="6">(A36+(A37-A36)/2)</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E44" si="7">(D36-D35)*(B36)*C36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.7</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="6"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.75</v>
+      </c>
+      <c r="B38">
+        <v>4.0039999999999999E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="6"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="7"/>
+        <v>7.627620000000006E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.8</v>
+      </c>
+      <c r="B39">
+        <v>4.8619999999999997E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>0.40640000000000004</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="6"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="7"/>
+        <v>9.8795839999999877E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.85</v>
+      </c>
+      <c r="B40">
+        <v>5.1480000000000005E-2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>0.875</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="7"/>
+        <v>1.111453200000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.9</v>
+      </c>
+      <c r="B41">
+        <v>4.5760000000000002E-2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>0.40640000000000004</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="6"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="7"/>
+        <v>9.2984320000000101E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.95</v>
+      </c>
+      <c r="B42">
+        <v>4.5760000000000002E-2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="6"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="7"/>
+        <v>9.8795839999999877E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2.86E-2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>0.4572</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="6"/>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="7"/>
+        <v>6.5379599999999913E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1.05</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="6"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1855,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2421,7 +2669,7 @@
         <v>1.5014999999999944E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1.45</v>
       </c>
@@ -2441,7 +2689,7 @@
         <v>1.4185600000000077E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.5</v>
       </c>
@@ -2461,7 +2709,7 @@
         <v>8.0079999999999724E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1.55</v>
       </c>
@@ -2481,7 +2729,7 @@
         <v>9.2664000000000505E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1.6</v>
       </c>
@@ -2501,7 +2749,7 @@
         <v>5.834399999999979E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1.65</v>
       </c>
@@ -2521,7 +2769,7 @@
         <v>4.804799999999983E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1.7</v>
       </c>
@@ -2541,10 +2789,355 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>A38-A23</f>
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.95</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f>C23*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f>A43</f>
+        <v>0.95</v>
+      </c>
+      <c r="F43">
+        <f>SUM(E43:E61)</f>
+        <v>2.04202284E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:C58" si="9">C24*2.54</f>
+        <v>5.0800000000000005E-2</v>
+      </c>
+      <c r="D44">
+        <f>(A44+(A45-A44)/2)</f>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E44">
+        <f>(D44-D43)*(B44)*C44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1.05</v>
+      </c>
+      <c r="B45">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="9"/>
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:D47" si="10">(A45+(A46-A45)/2)</f>
+        <v>1.0750000000000002</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45:E46" si="11">(D45-D44)*(B45)*C45</f>
+        <v>3.2689800000000179E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B46">
+        <v>9.1520000000000004E-2</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="9"/>
+        <v>0.10160000000000001</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="10"/>
+        <v>1.125</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="11"/>
+        <v>4.6492159999999839E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B47">
+        <v>9.7239999999999993E-2</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="9"/>
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="10"/>
+        <v>1.1749999999999998</v>
+      </c>
+      <c r="E47">
+        <f>(D47-D46)*(B47)*C47</f>
+        <v>3.704843999999987E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1.2</v>
+      </c>
+      <c r="B48">
+        <v>0.10868</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="9"/>
+        <v>0.10160000000000001</v>
+      </c>
+      <c r="D48">
+        <f>(A48+(A49-A48)/2)</f>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:E58" si="12">(D48-D47)*(B48)*C48</f>
+        <v>5.52094400000003E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1.25</v>
+      </c>
+      <c r="B49">
+        <v>0.12012</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="9"/>
+        <v>0.10160000000000001</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:D58" si="13">(A49+(A50-A49)/2)</f>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="12"/>
+        <v>6.1020959999999794E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1.3</v>
+      </c>
+      <c r="B50">
+        <v>0.19447999999999999</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="9"/>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="13"/>
+        <v>1.3250000000000002</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="12"/>
+        <v>1.7289272000000091E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1.35</v>
+      </c>
+      <c r="B51">
+        <v>0.18304000000000001</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="9"/>
+        <v>0.20320000000000002</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="13"/>
+        <v>1.375</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="12"/>
+        <v>1.8596863999999936E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1.4</v>
+      </c>
+      <c r="B52">
+        <v>0.20019999999999999</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="9"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="13"/>
+        <v>1.4249999999999998</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="12"/>
+        <v>3.8138099999999861E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1.45</v>
+      </c>
+      <c r="B53">
+        <v>0.17732000000000001</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="9"/>
+        <v>0.40640000000000004</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="13"/>
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="12"/>
+        <v>3.6031424000000198E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1.5</v>
+      </c>
+      <c r="B54">
+        <v>0.16016</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="9"/>
+        <v>0.254</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="13"/>
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="12"/>
+        <v>2.0340319999999929E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1.55</v>
+      </c>
+      <c r="B55">
+        <v>0.15444000000000002</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="9"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="13"/>
+        <v>1.5750000000000002</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="12"/>
+        <v>2.3536656000000128E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1.6</v>
+      </c>
+      <c r="B56">
+        <v>9.7239999999999993E-2</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="9"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="13"/>
+        <v>1.625</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="12"/>
+        <v>1.4819375999999948E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1.65</v>
+      </c>
+      <c r="B57">
+        <v>6.8639999999999993E-2</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="9"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="13"/>
+        <v>1.6749999999999998</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="12"/>
+        <v>1.2204191999999957E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1.7</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="13"/>
+        <v>0.85</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3026,21 +3619,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA27023E844F434EBFC790358068B4CE" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="962119b939e32e01d6fe84b679c182bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18299441-e87c-4909-bb3a-a1a391a25027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185fd3cf949c73c8f7d83010548f2ed9" ns3:_="">
     <xsd:import namespace="18299441-e87c-4909-bb3a-a1a391a25027"/>
@@ -3224,10 +3802,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873B6D2C-6C6B-4EBE-8446-EA660FA32CC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECBD4260-AE55-45A2-8DBF-F178EE53EF50}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3249,19 +3852,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECBD4260-AE55-45A2-8DBF-F178EE53EF50}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873B6D2C-6C6B-4EBE-8446-EA660FA32CC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>